--- a/biology/Zoologie/Hypothyris_thea/Hypothyris_thea.xlsx
+++ b/biology/Zoologie/Hypothyris_thea/Hypothyris_thea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris thea est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Hypothyris.
 </t>
@@ -511,47 +523,53 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hypothyris thea a été décrit par William Chapman Hewitson en 1852 sous le nom initial d' Ithonia thea[1].
-Sous-espèces
-Hypothyris thea thea; présent au Brésil
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris thea a été décrit par William Chapman Hewitson en 1852 sous le nom initial d' Ithonia thea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hypothyris_thea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_thea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hypothyris thea thea; présent au Brésil
 Hypothyris thea mayi d'Almeida, 1945; présent au Brésil
 Hypothyris thea theatina (Haensch, 1909)
 Hypothyris thea ssp; présent au Pérou
 Hypothyris thea ssp; présent au Pérou
-Hypothyris thea ssp; présent en Bolivie[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hypothyris_thea</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypothyris_thea</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypothyris thea est un papillon à corps fin, aux ailes ailes à apex arrondi et aux ailes antérieures à bord interne concave. Les ailes antérieures sont orange de la base à une ligne allant du milieu de bord costal à l'angle externe, le reste de l'aile est marron avec une ligne submarginale de petits points crème et une plage crème.  Les ailes postérieures sont orange  marquées d'une ligne marron et bordées de marron avec une ligne submarginale de points blancs au bord externe dans cette bordure marron
-</t>
+Hypothyris thea ssp; présent en Bolivie.</t>
         </is>
       </c>
     </row>
@@ -576,12 +594,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris thea est un papillon à corps fin, aux ailes ailes à apex arrondi et aux ailes antérieures à bord interne concave. Les ailes antérieures sont orange de la base à une ligne allant du milieu de bord costal à l'angle externe, le reste de l'aile est marron avec une ligne submarginale de petits points crème et une plage crème.  Les ailes postérieures sont orange  marquées d'une ligne marron et bordées de marron avec une ligne submarginale de points blancs au bord externe dans cette bordure marron
+</t>
         </is>
       </c>
     </row>
@@ -609,12 +630,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypothyris thea est présent au Brésil, au Pérou et en Bolivie[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris thea est présent au Brésil, au Pérou et en Bolivie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypothyris_thea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_thea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Hypothyris thea, sur Wikimedia CommonsHypothyris thea, sur Wikispecies
 </t>
